--- a/XinHu/data/user.xlsx
+++ b/XinHu/data/user.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E266B-B652-44FA-BE68-417CF149F1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc&lt;!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;//a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!!@@@..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,19 +100,11 @@
     <t>大乔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….////</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,16 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,66 +455,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -548,43 +512,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -595,53 +544,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
